--- a/po forecast comparison/B0D33M6CB7_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0D33M6CB7_sales_po_comparison.xlsx
@@ -7,7 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales vs PO" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Growth" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Volume Insights" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prediction Info" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,348 +453,777 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Order Week</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
+        <v>45445</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="n">
         <v>45439</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
+        <v>45452</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="n">
         <v>45446</v>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>180</v>
+      <c r="D3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45453</v>
+        <v>45459</v>
       </c>
       <c r="B4" t="n">
         <v>16</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="D4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45460</v>
+        <v>45466</v>
       </c>
       <c r="B5" t="n">
         <v>52</v>
       </c>
-      <c r="C5" t="n">
-        <v>400</v>
+      <c r="C5" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45467</v>
+        <v>45473</v>
       </c>
       <c r="B6" t="n">
         <v>16</v>
       </c>
-      <c r="C6" t="n">
-        <v>100</v>
+      <c r="C6" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45474</v>
+        <v>45480</v>
       </c>
       <c r="B7" t="n">
         <v>35</v>
       </c>
-      <c r="C7" t="n">
-        <v>80</v>
+      <c r="C7" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45481</v>
+        <v>45487</v>
       </c>
       <c r="B8" t="n">
         <v>40</v>
       </c>
-      <c r="C8" t="n">
-        <v>40</v>
+      <c r="C8" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45488</v>
+        <v>45494</v>
       </c>
       <c r="B9" t="n">
         <v>31</v>
       </c>
-      <c r="C9" t="n">
-        <v>260</v>
+      <c r="C9" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45495</v>
+        <v>45501</v>
       </c>
       <c r="B10" t="n">
         <v>28</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="D10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45502</v>
+        <v>45508</v>
       </c>
       <c r="B11" t="n">
         <v>39</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="D11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45509</v>
+        <v>45515</v>
       </c>
       <c r="B12" t="n">
         <v>41</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="D12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45516</v>
+        <v>45522</v>
       </c>
       <c r="B13" t="n">
         <v>47</v>
       </c>
-      <c r="C13" t="n">
-        <v>100</v>
+      <c r="C13" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45523</v>
+        <v>45529</v>
       </c>
       <c r="B14" t="n">
         <v>274</v>
       </c>
-      <c r="C14" t="n">
-        <v>160</v>
+      <c r="C14" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45530</v>
+        <v>45536</v>
       </c>
       <c r="B15" t="n">
         <v>39</v>
       </c>
-      <c r="C15" t="n">
-        <v>80</v>
+      <c r="C15" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45537</v>
+        <v>45543</v>
       </c>
       <c r="B16" t="n">
         <v>39</v>
       </c>
-      <c r="C16" t="n">
-        <v>120</v>
+      <c r="C16" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45544</v>
+        <v>45550</v>
       </c>
       <c r="B17" t="n">
         <v>28</v>
       </c>
-      <c r="C17" t="n">
-        <v>40</v>
+      <c r="C17" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45551</v>
+        <v>45557</v>
       </c>
       <c r="B18" t="n">
         <v>27</v>
       </c>
-      <c r="C18" t="n">
-        <v>280</v>
+      <c r="C18" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45558</v>
+        <v>45564</v>
       </c>
       <c r="B19" t="n">
         <v>30</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="D19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45565</v>
+        <v>45571</v>
       </c>
       <c r="B20" t="n">
         <v>34</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="D20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45572</v>
+        <v>45578</v>
       </c>
       <c r="B21" t="n">
         <v>38</v>
       </c>
-      <c r="C21" t="n">
-        <v>60</v>
+      <c r="C21" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45579</v>
+        <v>45585</v>
       </c>
       <c r="B22" t="n">
         <v>42</v>
       </c>
-      <c r="C22" t="n">
-        <v>20</v>
+      <c r="C22" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="B23" t="n">
         <v>39</v>
       </c>
-      <c r="C23" t="n">
-        <v>20</v>
+      <c r="C23" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45593</v>
+        <v>45599</v>
       </c>
       <c r="B24" t="n">
         <v>27</v>
       </c>
-      <c r="C24" t="n">
-        <v>20</v>
+      <c r="C24" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="B25" t="n">
         <v>32</v>
       </c>
-      <c r="C25" t="n">
-        <v>20</v>
+      <c r="C25" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45607</v>
+        <v>45613</v>
       </c>
       <c r="B26" t="n">
         <v>52</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="D26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45614</v>
+        <v>45620</v>
       </c>
       <c r="B27" t="n">
         <v>48</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="D27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="B28" t="n">
         <v>51</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="D28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45628</v>
+        <v>45634</v>
       </c>
       <c r="B29" t="n">
         <v>45</v>
       </c>
-      <c r="C29" t="n">
-        <v>20</v>
+      <c r="C29" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45635</v>
+        <v>45641</v>
       </c>
       <c r="B30" t="n">
         <v>49</v>
       </c>
-      <c r="C30" t="n">
-        <v>20</v>
+      <c r="C30" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45642</v>
+        <v>45648</v>
       </c>
       <c r="B31" t="n">
         <v>41</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="D31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45649</v>
+        <v>45655</v>
       </c>
       <c r="B32" t="n">
         <v>34</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Requested_Qty</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Growth%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B2" t="n">
+        <v>180</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B3" t="n">
+        <v>400</v>
+      </c>
+      <c r="C3" t="n">
+        <v>122.2222222222222</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B5" t="n">
+        <v>80</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B6" t="n">
+        <v>40</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B7" t="n">
+        <v>260</v>
+      </c>
+      <c r="C7" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-61.53846153846154</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B9" t="n">
+        <v>160</v>
+      </c>
+      <c r="C9" t="n">
+        <v>60.00000000000001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B10" t="n">
+        <v>80</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B11" t="n">
+        <v>120</v>
+      </c>
+      <c r="C11" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B12" t="n">
+        <v>40</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-66.66666666666667</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B13" t="n">
+        <v>280</v>
+      </c>
+      <c r="C13" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B14" t="n">
+        <v>60</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-78.57142857142857</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B15" t="n">
+        <v>20</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-66.66666666666667</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B16" t="n">
+        <v>20</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B17" t="n">
+        <v>20</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B18" t="n">
+        <v>20</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B19" t="n">
+        <v>20</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B20" t="n">
+        <v>20</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Total_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Average_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Max_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Min_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B2" t="n">
+        <v>106.3157894736842</v>
+      </c>
+      <c r="C2" t="n">
+        <v>400</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Predicted_Next_Week_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B0D33M6CB7_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0D33M6CB7_sales_po_comparison.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,446 +453,348 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Order Week</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45445</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>45439</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45452</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>45446</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
+      <c r="C3" t="n">
+        <v>180</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45459</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>45453</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45466</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>52</v>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>45460</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
+      <c r="C5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45473</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>45467</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
+      <c r="C6" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45480</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>35</v>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>45474</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
+      <c r="C7" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45487</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>40</v>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>45481</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
+      <c r="C8" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45494</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>31</v>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>45488</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
+      <c r="C9" t="n">
+        <v>260</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45501</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>28</v>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>45495</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="C10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45508</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>39</v>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>45502</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="C11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45515</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>41</v>
       </c>
-      <c r="C12" s="2" t="n">
-        <v>45509</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="C12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45522</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>47</v>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>45516</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
+      <c r="C13" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45529</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>274</v>
       </c>
-      <c r="C14" s="2" t="n">
-        <v>45523</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
+      <c r="C14" t="n">
+        <v>160</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45536</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>39</v>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>45530</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
+      <c r="C15" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45543</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>39</v>
       </c>
-      <c r="C16" s="2" t="n">
-        <v>45537</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
+      <c r="C16" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45550</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>28</v>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>45544</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
+      <c r="C17" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45557</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>27</v>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>45551</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
+      <c r="C18" t="n">
+        <v>280</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45564</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>30</v>
       </c>
-      <c r="C19" s="2" t="n">
-        <v>45558</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="C19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45571</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>34</v>
       </c>
-      <c r="C20" s="2" t="n">
-        <v>45565</v>
-      </c>
-      <c r="D20" t="n">
+      <c r="C20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45578</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>38</v>
       </c>
-      <c r="C21" s="2" t="n">
-        <v>45572</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
+      <c r="C21" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45585</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>42</v>
       </c>
-      <c r="C22" s="2" t="n">
-        <v>45579</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
+      <c r="C22" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45592</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>39</v>
       </c>
-      <c r="C23" s="2" t="n">
-        <v>45586</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
+      <c r="C23" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45599</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B24" t="n">
         <v>27</v>
       </c>
-      <c r="C24" s="2" t="n">
-        <v>45593</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
+      <c r="C24" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45606</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B25" t="n">
         <v>32</v>
       </c>
-      <c r="C25" s="2" t="n">
-        <v>45600</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
+      <c r="C25" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45613</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B26" t="n">
         <v>52</v>
       </c>
-      <c r="C26" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="D26" t="n">
+      <c r="C26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45620</v>
+        <v>45620.99999999999</v>
       </c>
       <c r="B27" t="n">
         <v>48</v>
       </c>
-      <c r="C27" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="D27" t="n">
+      <c r="C27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45627</v>
+        <v>45627.99999999999</v>
       </c>
       <c r="B28" t="n">
         <v>51</v>
       </c>
-      <c r="C28" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="D28" t="n">
+      <c r="C28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45634</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B29" t="n">
         <v>45</v>
       </c>
-      <c r="C29" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
+      <c r="C29" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45641</v>
+        <v>45641.99999999999</v>
       </c>
       <c r="B30" t="n">
         <v>49</v>
       </c>
-      <c r="C30" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
+      <c r="C30" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45648</v>
+        <v>45648.99999999999</v>
       </c>
       <c r="B31" t="n">
         <v>41</v>
       </c>
-      <c r="C31" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="D31" t="n">
+      <c r="C31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45655</v>
+        <v>45655.99999999999</v>
       </c>
       <c r="B32" t="n">
         <v>34</v>
       </c>
-      <c r="C32" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="D32" t="n">
+      <c r="C32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -934,7 +836,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45446</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>180</v>
@@ -945,7 +847,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45460</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>400</v>
@@ -956,7 +858,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45467</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>100</v>
@@ -967,7 +869,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45474</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>80</v>
@@ -978,7 +880,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45481</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>40</v>
@@ -989,7 +891,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45488</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>260</v>
@@ -1000,7 +902,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45516</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>100</v>
@@ -1011,7 +913,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45523</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>160</v>
@@ -1022,7 +924,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45530</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>80</v>
@@ -1033,7 +935,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45537</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>120</v>
@@ -1044,7 +946,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45544</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>40</v>
@@ -1055,7 +957,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45551</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>280</v>
@@ -1066,7 +968,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45572</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>60</v>
@@ -1077,7 +979,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45579</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>20</v>
@@ -1088,7 +990,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45586</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>20</v>
@@ -1099,7 +1001,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45593</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>20</v>
@@ -1110,7 +1012,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45600</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>20</v>
@@ -1121,7 +1023,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45628</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>20</v>
@@ -1132,7 +1034,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45635</v>
+        <v>45641.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>20</v>

--- a/po forecast comparison/B0D33M6CB7_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0D33M6CB7_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -699,6 +699,14 @@
       </c>
       <c r="B32" t="n">
         <v>34</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -11132,7 +11140,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C118"/>
+  <dimension ref="A1:C119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12441,6 +12449,17 @@
         <v>34</v>
       </c>
       <c r="C118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B119" t="n">
+        <v>31</v>
+      </c>
+      <c r="C119" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B0D33M6CB7_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0D33M6CB7_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -707,6 +707,14 @@
       </c>
       <c r="B33" t="n">
         <v>31</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -11140,7 +11148,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C119"/>
+  <dimension ref="A1:C120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11338,7 +11346,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18">
@@ -11349,7 +11357,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -11360,7 +11368,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20">
@@ -11426,7 +11434,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -11437,7 +11445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -11448,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
@@ -11470,7 +11478,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
@@ -11492,7 +11500,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -11503,7 +11511,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
@@ -11525,7 +11533,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
@@ -11547,7 +11555,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -11778,7 +11786,7 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58">
@@ -11811,7 +11819,7 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61">
@@ -11888,7 +11896,7 @@
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68">
@@ -11899,7 +11907,7 @@
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69">
@@ -11910,7 +11918,7 @@
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70">
@@ -11921,7 +11929,7 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71">
@@ -11943,7 +11951,7 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73">
@@ -11954,7 +11962,7 @@
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74">
@@ -12053,7 +12061,7 @@
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83">
@@ -12086,7 +12094,7 @@
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86">
@@ -12152,7 +12160,7 @@
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92">
@@ -12163,7 +12171,7 @@
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93">
@@ -12460,6 +12468,17 @@
         <v>31</v>
       </c>
       <c r="C119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B120" t="n">
+        <v>36</v>
+      </c>
+      <c r="C120" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B0D33M6CB7_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0D33M6CB7_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -715,6 +715,14 @@
       </c>
       <c r="B34" t="n">
         <v>36</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -11148,7 +11156,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C120"/>
+  <dimension ref="A1:C121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12479,6 +12487,17 @@
         <v>36</v>
       </c>
       <c r="C120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B121" t="n">
+        <v>10</v>
+      </c>
+      <c r="C121" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B0D33M6CB7_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0D33M6CB7_sales_po_comparison.xlsx
@@ -722,7 +722,7 @@
         <v>45676.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -12495,7 +12495,7 @@
         <v>45676.99999999999</v>
       </c>
       <c r="B121" t="n">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
